--- a/Tennis/WTA Tour/Sam Stosur.xlsx
+++ b/Tennis/WTA Tour/Sam Stosur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9758" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB120504-6858-46EC-B435-024D7DD06BD1}"/>
+  <xr:revisionPtr revIDLastSave="9763" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E468CAAF-D7B9-4A5E-8FE9-21E69D6C4140}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="25" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="22" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1998" sheetId="4" r:id="rId1"/>
@@ -38,9 +38,9 @@
     <sheet name="2020" sheetId="27" r:id="rId23"/>
     <sheet name="2021" sheetId="33" r:id="rId24"/>
     <sheet name="2022" sheetId="42" r:id="rId25"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId26"/>
+    <sheet name="Stats" sheetId="1" r:id="rId26"/>
     <sheet name="Wins-Losses" sheetId="43" r:id="rId27"/>
-    <sheet name="YTD Winning Percentile Range" sheetId="44" r:id="rId28"/>
+    <sheet name="Winning Percentile Range" sheetId="44" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3218,7 +3218,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3239,7 +3239,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$26</c:f>
+              <c:f>Stats!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3323,7 +3323,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$26</c:f>
+              <c:f>Stats!$D$2:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3416,7 +3416,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3437,7 +3437,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$26</c:f>
+              <c:f>Stats!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3521,7 +3521,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$26</c:f>
+              <c:f>Stats!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4003,7 +4003,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4052,7 +4052,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$26</c:f>
+              <c:f>Stats!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4136,7 +4136,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$26</c:f>
+              <c:f>Stats!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="25"/>
@@ -5628,7 +5628,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A26B7089-B1ED-4059-9DBA-A6E1156F6F94}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5640,7 +5640,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5673,7 +5673,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6005,17 +6005,17 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6093,7 +6093,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6726,17 +6726,17 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7466,7 +7466,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8452,17 +8452,17 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9537,17 +9537,17 @@
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10676,17 +10676,17 @@
   <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11814,17 +11814,17 @@
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12924,7 +12924,7 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13921,7 +13921,7 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14924,7 +14924,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15901,17 +15901,17 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -16022,7 +16022,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16743,17 +16743,17 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -17649,17 +17649,17 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -18438,17 +18438,17 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -18579,17 +18579,17 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -18840,17 +18840,17 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -18960,7 +18960,7 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -19598,7 +19598,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19869,7 +19869,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20664,7 +20664,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A61" sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21581,7 +21581,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22389,7 +22389,7 @@
   <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A31" sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23539,7 +23539,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24430,7 +24430,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A54" sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Sam Stosur.xlsx
+++ b/Tennis/WTA Tour/Sam Stosur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9765" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A127B52-24CB-49E3-A89C-CCD53ED0CB1E}"/>
+  <xr:revisionPtr revIDLastSave="9769" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3D503AD-B799-4B98-85A1-F9B986CDD327}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="22" activeTab="24" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1998" sheetId="4" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5311" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5305" uniqueCount="984">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3526,7 +3526,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -5616,7 +5616,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AC34D0B0-B63B-4B9B-B574-74F440EFA325}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5673,7 +5673,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -6006,18 +6006,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -6060,26 +6060,6 @@
       </c>
       <c r="F2" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -6096,7 +6076,7 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -6729,7 +6709,7 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -7469,7 +7449,7 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -8455,7 +8435,7 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -9540,7 +9520,7 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -10679,7 +10659,7 @@
   </sheetPr>
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -11817,7 +11797,7 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -12927,7 +12907,7 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -13924,7 +13904,7 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -14927,7 +14907,7 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -15904,7 +15884,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -16025,7 +16005,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -16746,7 +16726,7 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -17652,7 +17632,7 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -18441,7 +18421,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -18582,7 +18562,7 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -18843,7 +18823,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -18964,8 +18944,8 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19004,7 +18984,7 @@
         <v>1998</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -19013,7 +18993,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="6" t="e">
         <f>(D2-E2)/D2</f>
@@ -19535,7 +19515,7 @@
       </c>
       <c r="B27" s="5">
         <f>SUM(B2:B26)</f>
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" ref="C27:E27" si="1">SUM(C2:C26)</f>
@@ -19547,11 +19527,11 @@
       </c>
       <c r="E27" s="5">
         <f t="shared" si="1"/>
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F27" s="8">
         <f>(D27-E27)/D27</f>
-        <v>0.26960784313725489</v>
+        <v>0.27124183006535946</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -19560,7 +19540,7 @@
       </c>
       <c r="B28" s="5">
         <f>AVERAGE(B2:B26)</f>
-        <v>18.239999999999998</v>
+        <v>18.2</v>
       </c>
       <c r="C28" s="5">
         <f>AVERAGE(C2:C26)</f>
@@ -19572,11 +19552,11 @@
       </c>
       <c r="E28" s="5">
         <f t="shared" si="2"/>
-        <v>17.88</v>
+        <v>17.84</v>
       </c>
       <c r="F28" s="8">
         <f>(D28-E28)/D28</f>
-        <v>0.26960784313725494</v>
+        <v>0.27124183006535951</v>
       </c>
     </row>
   </sheetData>
@@ -19601,7 +19581,7 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -19872,7 +19852,7 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -20667,7 +20647,7 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -21584,7 +21564,7 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -22392,7 +22372,7 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -23542,7 +23522,7 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -24433,7 +24413,7 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Sam Stosur.xlsx
+++ b/Tennis/WTA Tour/Sam Stosur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9769" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3D503AD-B799-4B98-85A1-F9B986CDD327}"/>
+  <xr:revisionPtr revIDLastSave="9771" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8D7CFD2-4109-446C-A72A-95A0C83E7DA4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="24" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1998" sheetId="4" r:id="rId1"/>
@@ -5616,7 +5616,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AC34D0B0-B63B-4B9B-B574-74F440EFA325}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5673,7 +5673,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5700,10 +5700,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6008,7 +6004,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6076,8 +6072,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6709,8 +6705,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7449,8 +7445,8 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8435,8 +8431,8 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9520,8 +9516,8 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10659,8 +10655,8 @@
   </sheetPr>
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11797,8 +11793,8 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12907,8 +12903,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13904,8 +13900,8 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14907,8 +14903,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15884,8 +15880,8 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16005,8 +16001,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16726,8 +16722,8 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17632,8 +17628,8 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18421,8 +18417,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18562,8 +18558,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18823,8 +18819,8 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18944,8 +18940,8 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19581,8 +19577,8 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19852,8 +19848,8 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20647,8 +20643,8 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21564,8 +21560,8 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22372,8 +22368,8 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23522,8 +23518,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24413,8 +24409,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Sam Stosur.xlsx
+++ b/Tennis/WTA Tour/Sam Stosur.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -5703,9 +5703,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5743,7 +5743,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5849,7 +5849,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5991,7 +5991,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Tennis/WTA Tour/Sam Stosur.xlsx
+++ b/Tennis/WTA Tour/Sam Stosur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9774" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7062F54A-905D-4D89-860D-9EF1843D394B}"/>
+  <xr:revisionPtr revIDLastSave="9777" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32B781A3-EA39-4B48-AB4D-1277BABC1402}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="18" activeTab="24" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" firstSheet="18" activeTab="24" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1998" sheetId="4" r:id="rId1"/>
@@ -1367,18 +1367,12 @@
     <t>Alicia Molik (AUSTRALIA)</t>
   </si>
   <si>
-    <t>QATAR TOTAL OPEN</t>
-  </si>
-  <si>
     <t>Sun Tiantian (CHINA)</t>
   </si>
   <si>
     <t>3-6 6-3 7-5</t>
   </si>
   <si>
-    <t>DUBAI TENNIS CHAMPIONSHIPS</t>
-  </si>
-  <si>
     <t>6-7(5) 7-5 7-6(4)</t>
   </si>
   <si>
@@ -3012,6 +3006,12 @@
   </si>
   <si>
     <t>QATAR LADIES OPEN</t>
+  </si>
+  <si>
+    <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
   </si>
 </sst>
 </file>
@@ -6108,22 +6108,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>511</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>483</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6131,7 +6131,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -6185,7 +6185,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6199,7 +6199,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -6219,12 +6219,12 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -6239,7 +6239,7 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6247,7 +6247,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -6281,13 +6281,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6295,7 +6295,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -6309,13 +6309,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6329,7 +6329,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -6363,7 +6363,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
@@ -6377,7 +6377,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>18</v>
@@ -6388,7 +6388,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -6417,7 +6417,7 @@
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6436,7 +6436,7 @@
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -6462,7 +6462,7 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>18</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>18</v>
@@ -6493,13 +6493,13 @@
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6533,7 +6533,7 @@
         <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -6581,7 +6581,7 @@
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -6615,7 +6615,7 @@
         <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6629,13 +6629,13 @@
         <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -6649,7 +6649,7 @@
         <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6663,7 +6663,7 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>18</v>
@@ -6683,7 +6683,7 @@
         <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>18</v>
@@ -6741,7 +6741,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -6750,7 +6750,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
@@ -6764,7 +6764,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -6778,7 +6778,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -6792,18 +6792,18 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -6812,7 +6812,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -6826,7 +6826,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -6840,7 +6840,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>18</v>
@@ -6860,7 +6860,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -6894,13 +6894,13 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6928,13 +6928,13 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6942,13 +6942,13 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6956,7 +6956,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
@@ -6970,7 +6970,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>18</v>
@@ -6990,7 +6990,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
@@ -7010,7 +7010,7 @@
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -7024,7 +7024,7 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7052,7 +7052,7 @@
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
@@ -7072,7 +7072,7 @@
         <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7106,7 +7106,7 @@
         <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7114,7 +7114,7 @@
         <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>19</v>
@@ -7156,18 +7156,18 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B37" t="s">
         <v>17</v>
@@ -7176,7 +7176,7 @@
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>19</v>
@@ -7190,13 +7190,13 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -7224,7 +7224,7 @@
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
@@ -7238,7 +7238,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>18</v>
@@ -7278,7 +7278,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
@@ -7292,13 +7292,13 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -7306,7 +7306,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>19</v>
@@ -7320,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
@@ -7340,7 +7340,7 @@
         <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7354,13 +7354,13 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -7382,7 +7382,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>18</v>
@@ -7393,7 +7393,7 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B56" t="s">
         <v>17</v>
@@ -7402,18 +7402,18 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B58" t="s">
         <v>17</v>
@@ -7422,13 +7422,13 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -7481,7 +7481,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -7504,7 +7504,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>18</v>
@@ -7524,13 +7524,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7544,13 +7544,13 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7558,7 +7558,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -7583,7 +7583,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>982</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -7592,7 +7592,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -7606,13 +7606,13 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7640,13 +7640,13 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7666,7 +7666,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7674,7 +7674,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
@@ -7727,7 +7727,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
@@ -7742,7 +7742,7 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7756,7 +7756,7 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>18</v>
@@ -7767,7 +7767,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -7776,13 +7776,13 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -7790,13 +7790,13 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7824,13 +7824,13 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -7844,7 +7844,7 @@
         <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -7866,7 +7866,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
@@ -7886,7 +7886,7 @@
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7900,7 +7900,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>19</v>
@@ -7920,7 +7920,7 @@
         <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7934,13 +7934,13 @@
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -7948,13 +7948,13 @@
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -7982,7 +7982,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
@@ -8010,13 +8010,13 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -8024,18 +8024,18 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>19</v>
@@ -8134,13 +8134,13 @@
         <v>25</v>
       </c>
       <c r="D56" t="s">
+        <v>591</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" t="s">
         <v>593</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -8182,7 +8182,7 @@
         <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8196,13 +8196,13 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -8210,13 +8210,13 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8236,7 +8236,7 @@
         <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -8244,7 +8244,7 @@
         <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>18</v>
@@ -8255,7 +8255,7 @@
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B67" t="s">
         <v>17</v>
@@ -8264,7 +8264,7 @@
         <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>19</v>
@@ -8298,7 +8298,7 @@
         <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>18</v>
@@ -8318,7 +8318,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>19</v>
@@ -8346,7 +8346,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>19</v>
@@ -8366,7 +8366,7 @@
         <v>19</v>
       </c>
       <c r="F75" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -8385,7 +8385,7 @@
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B78" t="s">
         <v>17</v>
@@ -8394,13 +8394,13 @@
         <v>59</v>
       </c>
       <c r="D78" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F78" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -8408,13 +8408,13 @@
         <v>59</v>
       </c>
       <c r="D79" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -8437,7 +8437,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
@@ -8496,13 +8496,13 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8510,7 +8510,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -8524,7 +8524,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -8538,7 +8538,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>18</v>
@@ -8566,18 +8566,18 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>438</v>
+        <v>982</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -8586,13 +8586,13 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8606,13 +8606,13 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
+        <v>610</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
         <v>612</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8620,7 +8620,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
@@ -8648,13 +8648,13 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8682,13 +8682,13 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8702,7 +8702,7 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8716,7 +8716,7 @@
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8724,7 +8724,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>18</v>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -8744,7 +8744,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
@@ -8772,7 +8772,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
@@ -8817,7 +8817,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>19</v>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>19</v>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -8848,7 +8848,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
@@ -8862,13 +8862,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8876,7 +8876,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>19</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>19</v>
@@ -8915,7 +8915,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
@@ -8924,7 +8924,7 @@
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
@@ -8938,13 +8938,13 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -8958,7 +8958,7 @@
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -8986,7 +8986,7 @@
         <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
@@ -9000,7 +9000,7 @@
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
@@ -9014,7 +9014,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>19</v>
@@ -9034,7 +9034,7 @@
         <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -9042,13 +9042,13 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -9076,7 +9076,7 @@
         <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9090,7 +9090,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>19</v>
@@ -9110,7 +9110,7 @@
         <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -9124,7 +9124,7 @@
         <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -9132,13 +9132,13 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9152,7 +9152,7 @@
         <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>18</v>
@@ -9186,7 +9186,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>19</v>
@@ -9211,7 +9211,7 @@
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B64" t="s">
         <v>17</v>
@@ -9220,7 +9220,7 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>19</v>
@@ -9254,13 +9254,13 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F67" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9288,13 +9288,13 @@
         <v>24</v>
       </c>
       <c r="D70" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F70" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -9316,7 +9316,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>19</v>
@@ -9336,7 +9336,7 @@
         <v>19</v>
       </c>
       <c r="F73" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -9344,7 +9344,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>18</v>
@@ -9355,7 +9355,7 @@
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B76" t="s">
         <v>17</v>
@@ -9364,7 +9364,7 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>18</v>
@@ -9384,13 +9384,13 @@
         <v>25</v>
       </c>
       <c r="D78" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F78" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9404,7 +9404,7 @@
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>19</v>
@@ -9418,7 +9418,7 @@
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>19</v>
@@ -9432,13 +9432,13 @@
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F82" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9458,7 +9458,7 @@
         <v>18</v>
       </c>
       <c r="F84" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -9522,7 +9522,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
@@ -9552,7 +9552,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -9561,13 +9561,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9575,7 +9575,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>18</v>
@@ -9595,7 +9595,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -9615,7 +9615,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9629,7 +9629,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -9680,7 +9680,7 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9691,12 +9691,12 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>438</v>
+        <v>982</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -9705,7 +9705,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
@@ -9739,7 +9739,7 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9753,7 +9753,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
@@ -9773,7 +9773,7 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9801,13 +9801,13 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -9826,7 +9826,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -9835,7 +9835,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
@@ -9849,7 +9849,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>18</v>
@@ -9860,7 +9860,7 @@
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -9869,7 +9869,7 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
@@ -9889,7 +9889,7 @@
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -9903,7 +9903,7 @@
         <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -9911,18 +9911,18 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -9931,13 +9931,13 @@
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9959,7 +9959,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>18</v>
@@ -9993,7 +9993,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -10021,13 +10021,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -10069,7 +10069,7 @@
         <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
@@ -10083,7 +10083,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>18</v>
@@ -10117,7 +10117,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
@@ -10137,7 +10137,7 @@
         <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -10145,13 +10145,13 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10185,7 +10185,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>18</v>
@@ -10205,13 +10205,13 @@
         <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -10219,7 +10219,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>19</v>
@@ -10233,7 +10233,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>19</v>
@@ -10247,13 +10247,13 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -10261,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>19</v>
@@ -10275,7 +10275,7 @@
         <v>45</v>
       </c>
       <c r="D62" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>18</v>
@@ -10295,7 +10295,7 @@
         <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>19</v>
@@ -10309,7 +10309,7 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>19</v>
@@ -10323,13 +10323,13 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F66" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -10371,7 +10371,7 @@
         <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>19</v>
@@ -10391,7 +10391,7 @@
         <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -10405,7 +10405,7 @@
         <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -10427,13 +10427,13 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F74" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -10441,7 +10441,7 @@
         <v>45</v>
       </c>
       <c r="D75" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>19</v>
@@ -10452,7 +10452,7 @@
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B77" t="s">
         <v>17</v>
@@ -10467,7 +10467,7 @@
         <v>18</v>
       </c>
       <c r="F77" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10481,7 +10481,7 @@
         <v>25</v>
       </c>
       <c r="D79" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>19</v>
@@ -10501,7 +10501,7 @@
         <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10515,13 +10515,13 @@
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -10529,7 +10529,7 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>19</v>
@@ -10563,7 +10563,7 @@
         <v>19</v>
       </c>
       <c r="F85" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -10571,7 +10571,7 @@
         <v>45</v>
       </c>
       <c r="D86" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>18</v>
@@ -10591,7 +10591,7 @@
         <v>59</v>
       </c>
       <c r="D88" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>19</v>
@@ -10639,7 +10639,7 @@
         <v>18</v>
       </c>
       <c r="F91" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -10661,7 +10661,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
@@ -10691,7 +10691,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -10754,13 +10754,13 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10771,7 +10771,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -10782,7 +10782,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -10793,7 +10793,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -10802,13 +10802,13 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -10816,7 +10816,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -10836,7 +10836,7 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -10844,13 +10844,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -10869,7 +10869,7 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>438</v>
+        <v>982</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -10878,13 +10878,13 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10912,7 +10912,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -10926,13 +10926,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10946,7 +10946,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
@@ -10966,7 +10966,7 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10974,7 +10974,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>18</v>
@@ -10985,7 +10985,7 @@
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -10994,7 +10994,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>19</v>
@@ -11014,7 +11014,7 @@
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -11028,7 +11028,7 @@
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -11036,7 +11036,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>18</v>
@@ -11053,7 +11053,7 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -11064,7 +11064,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
@@ -11075,7 +11075,7 @@
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
@@ -11084,7 +11084,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>19</v>
@@ -11098,13 +11098,13 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -11118,7 +11118,7 @@
         <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11132,13 +11132,13 @@
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -11152,7 +11152,7 @@
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -11160,7 +11160,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
@@ -11174,13 +11174,13 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11194,7 +11194,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
@@ -11242,7 +11242,7 @@
         <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
@@ -11270,7 +11270,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>19</v>
@@ -11284,7 +11284,7 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>19</v>
@@ -11298,13 +11298,13 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11318,13 +11318,13 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11338,7 +11338,7 @@
         <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>19</v>
@@ -11358,7 +11358,7 @@
         <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11372,33 +11372,33 @@
         <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>709</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>625</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
         <v>711</v>
-      </c>
-      <c r="B62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" t="s">
-        <v>627</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -11406,13 +11406,13 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F63" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11432,7 +11432,7 @@
         <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -11440,7 +11440,7 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>19</v>
@@ -11454,13 +11454,13 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11474,7 +11474,7 @@
         <v>24</v>
       </c>
       <c r="D69" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>19</v>
@@ -11488,7 +11488,7 @@
         <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>19</v>
@@ -11502,13 +11502,13 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -11536,12 +11536,12 @@
         <v>18</v>
       </c>
       <c r="F73" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B75" t="s">
         <v>17</v>
@@ -11556,7 +11556,7 @@
         <v>19</v>
       </c>
       <c r="F75" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -11564,7 +11564,7 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>19</v>
@@ -11584,7 +11584,7 @@
         <v>19</v>
       </c>
       <c r="F77" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -11612,13 +11612,13 @@
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11632,7 +11632,7 @@
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>19</v>
@@ -11652,7 +11652,7 @@
         <v>19</v>
       </c>
       <c r="F83" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -11660,7 +11660,7 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>19</v>
@@ -11674,18 +11674,18 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F85" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B87" t="s">
         <v>17</v>
@@ -11694,13 +11694,13 @@
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F87" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -11708,7 +11708,7 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>19</v>
@@ -11728,7 +11728,7 @@
         <v>19</v>
       </c>
       <c r="F89" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -11742,7 +11742,7 @@
         <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11770,13 +11770,13 @@
         <v>59</v>
       </c>
       <c r="D93" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F93" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>
@@ -11829,7 +11829,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -11844,7 +11844,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11864,7 +11864,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11878,7 +11878,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -11898,7 +11898,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11915,23 +11915,23 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -11979,7 +11979,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>438</v>
+        <v>982</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -11988,7 +11988,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
@@ -12002,7 +12002,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -12016,7 +12016,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
@@ -12036,7 +12036,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -12050,13 +12050,13 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -12064,13 +12064,13 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -12078,10 +12078,10 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F23" t="s">
         <v>92</v>
@@ -12089,7 +12089,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -12098,7 +12098,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
@@ -12112,13 +12112,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12140,7 +12140,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
@@ -12151,7 +12151,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -12171,7 +12171,7 @@
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
@@ -12180,13 +12180,13 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12200,7 +12200,7 @@
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>19</v>
@@ -12214,13 +12214,13 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -12234,7 +12234,7 @@
         <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -12262,7 +12262,7 @@
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
@@ -12276,7 +12276,7 @@
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
@@ -12296,7 +12296,7 @@
         <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12324,7 +12324,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>18</v>
@@ -12344,7 +12344,7 @@
         <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>19</v>
@@ -12358,7 +12358,7 @@
         <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>19</v>
@@ -12372,7 +12372,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>18</v>
@@ -12392,7 +12392,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>18</v>
@@ -12403,7 +12403,7 @@
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B53" t="s">
         <v>17</v>
@@ -12412,7 +12412,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>19</v>
@@ -12426,7 +12426,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>19</v>
@@ -12440,13 +12440,13 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -12460,7 +12460,7 @@
         <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -12488,13 +12488,13 @@
         <v>25</v>
       </c>
       <c r="D59" t="s">
+        <v>747</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
         <v>749</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -12502,13 +12502,13 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -12550,7 +12550,7 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>19</v>
@@ -12564,13 +12564,13 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12595,7 +12595,7 @@
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
@@ -12604,13 +12604,13 @@
         <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -12618,7 +12618,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>19</v>
@@ -12632,7 +12632,7 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>18</v>
@@ -12652,7 +12652,7 @@
         <v>25</v>
       </c>
       <c r="D73" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>18</v>
@@ -12672,7 +12672,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>19</v>
@@ -12686,7 +12686,7 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>19</v>
@@ -12700,13 +12700,13 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F77" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -12714,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>19</v>
@@ -12728,18 +12728,18 @@
         <v>45</v>
       </c>
       <c r="D79" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F79" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B81" t="s">
         <v>17</v>
@@ -12748,7 +12748,7 @@
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>19</v>
@@ -12762,7 +12762,7 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>19</v>
@@ -12804,18 +12804,18 @@
         <v>45</v>
       </c>
       <c r="D85" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F85" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B87" t="s">
         <v>17</v>
@@ -12824,7 +12824,7 @@
         <v>59</v>
       </c>
       <c r="D87" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>19</v>
@@ -12852,7 +12852,7 @@
         <v>59</v>
       </c>
       <c r="D89" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>19</v>
@@ -12866,13 +12866,13 @@
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F90" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -12880,13 +12880,13 @@
         <v>45</v>
       </c>
       <c r="D91" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F91" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -12948,13 +12948,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -12962,13 +12962,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -12976,7 +12976,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -12990,7 +12990,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
@@ -13010,7 +13010,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -13024,7 +13024,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -13044,7 +13044,7 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13055,7 +13055,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -13066,7 +13066,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -13077,7 +13077,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -13086,7 +13086,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
@@ -13100,18 +13100,18 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>438</v>
+        <v>982</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -13120,13 +13120,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13160,7 +13160,7 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13174,7 +13174,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
@@ -13188,18 +13188,18 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -13208,13 +13208,13 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -13222,13 +13222,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13239,29 +13239,29 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -13270,7 +13270,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>18</v>
@@ -13281,7 +13281,7 @@
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
@@ -13290,7 +13290,7 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -13304,13 +13304,13 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -13338,7 +13338,7 @@
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>19</v>
@@ -13352,7 +13352,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
@@ -13366,7 +13366,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>18</v>
@@ -13386,7 +13386,7 @@
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
@@ -13400,7 +13400,7 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
@@ -13414,7 +13414,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>19</v>
@@ -13434,7 +13434,7 @@
         <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13468,7 +13468,7 @@
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13502,7 +13502,7 @@
         <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>18</v>
@@ -13522,13 +13522,13 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13542,7 +13542,7 @@
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>19</v>
@@ -13556,7 +13556,7 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>18</v>
@@ -13576,7 +13576,7 @@
         <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>19</v>
@@ -13590,13 +13590,13 @@
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13610,13 +13610,13 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -13624,7 +13624,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>19</v>
@@ -13638,13 +13638,13 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -13672,7 +13672,7 @@
         <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>19</v>
@@ -13686,7 +13686,7 @@
         <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>18</v>
@@ -13697,7 +13697,7 @@
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
@@ -13706,18 +13706,18 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B71" t="s">
         <v>17</v>
@@ -13726,7 +13726,7 @@
         <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>18</v>
@@ -13766,7 +13766,7 @@
         <v>19</v>
       </c>
       <c r="F74" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -13774,7 +13774,7 @@
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>19</v>
@@ -13788,7 +13788,7 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>19</v>
@@ -13822,7 +13822,7 @@
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>19</v>
@@ -13836,13 +13836,13 @@
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F80" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
@@ -13850,7 +13850,7 @@
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>19</v>
@@ -13864,13 +13864,13 @@
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.25">
@@ -13878,13 +13878,13 @@
         <v>45</v>
       </c>
       <c r="D83" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F83" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -13936,7 +13936,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -13945,13 +13945,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13965,13 +13965,13 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -13979,13 +13979,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14013,7 +14013,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
@@ -14030,7 +14030,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
@@ -14041,18 +14041,18 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>438</v>
+        <v>982</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -14061,7 +14061,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -14081,12 +14081,12 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -14095,13 +14095,13 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14115,7 +14115,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
@@ -14149,13 +14149,13 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -14169,12 +14169,12 @@
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -14183,7 +14183,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
@@ -14197,18 +14197,18 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -14217,13 +14217,13 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -14231,7 +14231,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>19</v>
@@ -14251,7 +14251,7 @@
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14265,7 +14265,7 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>18</v>
@@ -14276,7 +14276,7 @@
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
@@ -14285,7 +14285,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -14299,7 +14299,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>19</v>
@@ -14313,13 +14313,13 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -14327,13 +14327,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -14341,13 +14341,13 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14361,7 +14361,7 @@
         <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -14375,7 +14375,7 @@
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
@@ -14409,13 +14409,13 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14429,7 +14429,7 @@
         <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
@@ -14443,7 +14443,7 @@
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
@@ -14457,7 +14457,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>18</v>
@@ -14468,7 +14468,7 @@
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B49" t="s">
         <v>30</v>
@@ -14477,7 +14477,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
@@ -14491,13 +14491,13 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14511,13 +14511,13 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -14525,7 +14525,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>19</v>
@@ -14539,7 +14539,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>19</v>
@@ -14553,7 +14553,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>19</v>
@@ -14567,18 +14567,18 @@
         <v>45</v>
       </c>
       <c r="D56" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B58" t="s">
         <v>17</v>
@@ -14587,7 +14587,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>19</v>
@@ -14601,7 +14601,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>19</v>
@@ -14621,7 +14621,7 @@
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -14629,13 +14629,13 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F61" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14649,7 +14649,7 @@
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>18</v>
@@ -14669,13 +14669,13 @@
         <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14689,7 +14689,7 @@
         <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>19</v>
@@ -14703,7 +14703,7 @@
         <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>19</v>
@@ -14717,13 +14717,13 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -14742,7 +14742,7 @@
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B72" t="s">
         <v>17</v>
@@ -14751,13 +14751,13 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -14765,18 +14765,18 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F73" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B75" t="s">
         <v>17</v>
@@ -14785,7 +14785,7 @@
         <v>25</v>
       </c>
       <c r="D75" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>18</v>
@@ -14819,7 +14819,7 @@
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>18</v>
@@ -14830,7 +14830,7 @@
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B80" t="s">
         <v>17</v>
@@ -14839,7 +14839,7 @@
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>19</v>
@@ -14853,7 +14853,7 @@
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>19</v>
@@ -14867,13 +14867,13 @@
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.25">
@@ -14881,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>18</v>
@@ -14939,7 +14939,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -14948,13 +14948,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -14962,13 +14962,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14982,7 +14982,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -15010,7 +15010,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>18</v>
@@ -15030,7 +15030,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>18</v>
@@ -15047,18 +15047,18 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -15078,13 +15078,13 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -15098,7 +15098,7 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -15126,18 +15126,18 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -15146,7 +15146,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
@@ -15160,7 +15160,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -15174,18 +15174,18 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -15197,23 +15197,23 @@
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -15222,13 +15222,13 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -15236,7 +15236,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>19</v>
@@ -15250,13 +15250,13 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -15278,18 +15278,18 @@
         <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
@@ -15298,7 +15298,7 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -15312,7 +15312,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>19</v>
@@ -15326,13 +15326,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -15340,7 +15340,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>19</v>
@@ -15354,7 +15354,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>18</v>
@@ -15374,13 +15374,13 @@
         <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -15399,7 +15399,7 @@
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
@@ -15408,7 +15408,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
@@ -15422,7 +15422,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>19</v>
@@ -15436,10 +15436,10 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F44" t="s">
         <v>92</v>
@@ -15456,13 +15456,13 @@
         <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -15470,7 +15470,7 @@
         <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>19</v>
@@ -15484,13 +15484,13 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -15498,13 +15498,13 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -15512,7 +15512,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>19</v>
@@ -15526,7 +15526,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>18</v>
@@ -15566,7 +15566,7 @@
         <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>19</v>
@@ -15580,7 +15580,7 @@
         <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>18</v>
@@ -15591,7 +15591,7 @@
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B58" t="s">
         <v>17</v>
@@ -15600,7 +15600,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>19</v>
@@ -15620,7 +15620,7 @@
         <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -15628,7 +15628,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>18</v>
@@ -15648,7 +15648,7 @@
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>19</v>
@@ -15662,7 +15662,7 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>18</v>
@@ -15673,7 +15673,7 @@
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B65" t="s">
         <v>17</v>
@@ -15682,13 +15682,13 @@
         <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -15696,7 +15696,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>19</v>
@@ -15710,7 +15710,7 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>18</v>
@@ -15730,13 +15730,13 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15750,13 +15750,13 @@
         <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -15764,7 +15764,7 @@
         <v>25</v>
       </c>
       <c r="D72" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>18</v>
@@ -15775,7 +15775,7 @@
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B74" t="s">
         <v>17</v>
@@ -15804,7 +15804,7 @@
         <v>25</v>
       </c>
       <c r="D76" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>18</v>
@@ -15815,7 +15815,7 @@
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B78" t="s">
         <v>17</v>
@@ -15824,7 +15824,7 @@
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>18</v>
@@ -15835,7 +15835,7 @@
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B80" t="s">
         <v>17</v>
@@ -15844,7 +15844,7 @@
         <v>59</v>
       </c>
       <c r="D80" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>18</v>
@@ -15858,7 +15858,7 @@
         <v>59</v>
       </c>
       <c r="D81" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>18</v>
@@ -16037,7 +16037,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -16046,13 +16046,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16066,7 +16066,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
@@ -16086,18 +16086,18 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -16106,7 +16106,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -16134,7 +16134,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
@@ -16145,7 +16145,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -16154,7 +16154,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -16168,13 +16168,13 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -16182,7 +16182,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>18</v>
@@ -16193,7 +16193,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>438</v>
+        <v>982</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -16202,7 +16202,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
@@ -16216,7 +16216,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>18</v>
@@ -16236,13 +16236,13 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16256,7 +16256,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -16270,13 +16270,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -16284,18 +16284,18 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -16318,7 +16318,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>18</v>
@@ -16329,7 +16329,7 @@
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -16338,18 +16338,18 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -16358,7 +16358,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -16372,7 +16372,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>18</v>
@@ -16383,7 +16383,7 @@
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
@@ -16392,7 +16392,7 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -16406,7 +16406,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>19</v>
@@ -16420,13 +16420,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16440,18 +16440,18 @@
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
@@ -16460,7 +16460,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -16474,7 +16474,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
@@ -16488,7 +16488,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
@@ -16502,13 +16502,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -16516,13 +16516,13 @@
         <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16536,7 +16536,7 @@
         <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
@@ -16550,13 +16550,13 @@
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -16564,7 +16564,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>19</v>
@@ -16578,13 +16578,13 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16598,18 +16598,18 @@
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B52" t="s">
         <v>17</v>
@@ -16618,13 +16618,13 @@
         <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16638,7 +16638,7 @@
         <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>19</v>
@@ -16652,7 +16652,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>18</v>
@@ -16663,7 +16663,7 @@
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
@@ -16672,13 +16672,13 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -16686,13 +16686,13 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -16700,7 +16700,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>18</v>
@@ -16758,7 +16758,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -16767,7 +16767,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
@@ -16787,13 +16787,13 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -16801,7 +16801,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
@@ -16821,18 +16821,18 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -16841,18 +16841,18 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -16861,7 +16861,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -16875,7 +16875,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
@@ -16886,7 +16886,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>438</v>
+        <v>982</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -16895,7 +16895,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
@@ -16923,7 +16923,7 @@
         <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
@@ -16937,13 +16937,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16957,13 +16957,13 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -16971,7 +16971,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>18</v>
@@ -16991,7 +16991,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>18</v>
@@ -17002,7 +17002,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -17011,7 +17011,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>18</v>
@@ -17028,18 +17028,18 @@
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -17048,13 +17048,13 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -17062,7 +17062,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
@@ -17076,7 +17076,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>18</v>
@@ -17087,7 +17087,7 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -17096,13 +17096,13 @@
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -17110,7 +17110,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>18</v>
@@ -17130,18 +17130,18 @@
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
@@ -17150,7 +17150,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>19</v>
@@ -17164,7 +17164,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
@@ -17178,7 +17178,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>18</v>
@@ -17198,7 +17198,7 @@
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
@@ -17212,13 +17212,13 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -17226,7 +17226,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>18</v>
@@ -17237,7 +17237,7 @@
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B45" t="s">
         <v>37</v>
@@ -17246,13 +17246,13 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -17260,18 +17260,18 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -17280,7 +17280,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>19</v>
@@ -17294,7 +17294,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>19</v>
@@ -17308,7 +17308,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>19</v>
@@ -17322,13 +17322,13 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17342,13 +17342,13 @@
         <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17362,7 +17362,7 @@
         <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>19</v>
@@ -17376,7 +17376,7 @@
         <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>18</v>
@@ -17387,7 +17387,7 @@
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B58" t="s">
         <v>30</v>
@@ -17424,13 +17424,13 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17444,13 +17444,13 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17464,13 +17464,13 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F64" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17498,13 +17498,13 @@
         <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F67" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -17512,7 +17512,7 @@
         <v>140</v>
       </c>
       <c r="D68" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>19</v>
@@ -17526,7 +17526,7 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>18</v>
@@ -17557,7 +17557,7 @@
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B73" t="s">
         <v>17</v>
@@ -17566,7 +17566,7 @@
         <v>25</v>
       </c>
       <c r="D73" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>18</v>
@@ -17586,7 +17586,7 @@
         <v>25</v>
       </c>
       <c r="D75" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>18</v>
@@ -17597,7 +17597,7 @@
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B77" t="s">
         <v>17</v>
@@ -17606,7 +17606,7 @@
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>18</v>
@@ -17664,7 +17664,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -17673,13 +17673,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17693,13 +17693,13 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17707,13 +17707,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17727,7 +17727,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>18</v>
@@ -17738,7 +17738,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -17747,7 +17747,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -17761,7 +17761,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -17775,13 +17775,13 @@
         <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -17789,7 +17789,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
@@ -17809,7 +17809,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>18</v>
@@ -17829,7 +17829,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
@@ -17843,13 +17843,13 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -17857,7 +17857,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>18</v>
@@ -17885,18 +17885,18 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -17905,18 +17905,18 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -17925,13 +17925,13 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17945,13 +17945,13 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -17959,7 +17959,7 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>18</v>
@@ -17970,7 +17970,7 @@
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -17979,7 +17979,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>19</v>
@@ -17993,7 +17993,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>18</v>
@@ -18013,7 +18013,7 @@
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -18027,18 +18027,18 @@
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -18047,13 +18047,13 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -18061,7 +18061,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>18</v>
@@ -18081,7 +18081,7 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -18095,7 +18095,7 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
@@ -18109,7 +18109,7 @@
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
@@ -18123,7 +18123,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>18</v>
@@ -18143,7 +18143,7 @@
         <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>18</v>
@@ -18154,7 +18154,7 @@
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B46" t="s">
         <v>30</v>
@@ -18163,13 +18163,13 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -18177,7 +18177,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>19</v>
@@ -18191,7 +18191,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>18</v>
@@ -18202,7 +18202,7 @@
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
@@ -18211,7 +18211,7 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>18</v>
@@ -18231,7 +18231,7 @@
         <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>18</v>
@@ -18242,22 +18242,22 @@
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>944</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>947</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s">
         <v>946</v>
-      </c>
-      <c r="B54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" t="s">
-        <v>949</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -18265,7 +18265,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>18</v>
@@ -18276,7 +18276,7 @@
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
@@ -18285,7 +18285,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>19</v>
@@ -18299,13 +18299,13 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
+        <v>948</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
         <v>950</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -18313,13 +18313,13 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -18327,13 +18327,13 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -18341,13 +18341,13 @@
         <v>45</v>
       </c>
       <c r="D61" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F61" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18361,33 +18361,33 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F63" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>956</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>957</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
         <v>958</v>
-      </c>
-      <c r="B65" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" t="s">
-        <v>959</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -18395,7 +18395,7 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>18</v>
@@ -18453,7 +18453,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -18462,13 +18462,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -18476,7 +18476,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>18</v>
@@ -18496,7 +18496,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
@@ -18516,7 +18516,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>18</v>
@@ -18527,7 +18527,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -18542,7 +18542,7 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -18594,7 +18594,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -18603,7 +18603,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
@@ -18623,7 +18623,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -18637,7 +18637,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
@@ -18648,22 +18648,22 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>964</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>965</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
         <v>966</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>967</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18677,7 +18677,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>18</v>
@@ -18697,7 +18697,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
@@ -18717,18 +18717,18 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -18737,7 +18737,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>18</v>
@@ -18757,7 +18757,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>18</v>
@@ -18777,7 +18777,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>18</v>
@@ -18797,7 +18797,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>18</v>
@@ -18855,22 +18855,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>973</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>974</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>975</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -18884,13 +18884,13 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -18898,7 +18898,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
@@ -18909,7 +18909,7 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -18918,7 +18918,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>18</v>
@@ -23726,7 +23726,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>435</v>
+        <v>983</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -23749,13 +23749,13 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
+        <v>435</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
         <v>436</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -23788,7 +23788,7 @@
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>438</v>
+        <v>982</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -23797,13 +23797,13 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -23811,13 +23811,13 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23845,13 +23845,13 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23871,12 +23871,12 @@
         <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -23885,7 +23885,7 @@
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>18</v>
@@ -23896,7 +23896,7 @@
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -23919,7 +23919,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>18</v>
@@ -23964,7 +23964,7 @@
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
@@ -23979,7 +23979,7 @@
         <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23993,7 +23993,7 @@
         <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
@@ -24007,7 +24007,7 @@
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>18</v>
@@ -24027,7 +24027,7 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
@@ -24047,7 +24047,7 @@
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -24061,7 +24061,7 @@
         <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24081,7 +24081,7 @@
         <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24095,7 +24095,7 @@
         <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>18</v>
@@ -24121,7 +24121,7 @@
         <v>18</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24189,7 +24189,7 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>19</v>
@@ -24223,7 +24223,7 @@
         <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>18</v>
@@ -24234,27 +24234,27 @@
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>456</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>457</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" t="s">
         <v>458</v>
-      </c>
-      <c r="B62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" t="s">
-        <v>459</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B64" t="s">
         <v>382</v>
@@ -24291,7 +24291,7 @@
         <v>140</v>
       </c>
       <c r="D66" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>19</v>
@@ -24325,7 +24325,7 @@
         <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24339,7 +24339,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>19</v>
@@ -24353,13 +24353,13 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -24378,22 +24378,22 @@
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
         <v>467</v>
       </c>
-      <c r="B74" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" t="s">
-        <v>469</v>
-      </c>
       <c r="E74" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F74" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -24445,7 +24445,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -24460,7 +24460,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24502,13 +24502,13 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>470</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>472</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -24522,12 +24522,12 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -24556,7 +24556,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -24584,7 +24584,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>18</v>
@@ -24610,7 +24610,7 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -24638,7 +24638,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>19</v>
@@ -24663,7 +24663,7 @@
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -24672,7 +24672,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>19</v>
@@ -24697,7 +24697,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -24706,18 +24706,18 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -24726,7 +24726,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>19</v>
@@ -24754,7 +24754,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>19</v>
@@ -24768,7 +24768,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>19</v>
@@ -24782,7 +24782,7 @@
         <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>18</v>
@@ -24808,7 +24808,7 @@
         <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -24857,13 +24857,13 @@
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -24871,13 +24871,13 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24891,7 +24891,7 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>19</v>
@@ -24905,13 +24905,13 @@
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -24919,7 +24919,7 @@
         <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>18</v>
@@ -24939,7 +24939,7 @@
         <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
@@ -24973,7 +24973,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>19</v>
@@ -24987,7 +24987,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>19</v>
@@ -25021,7 +25021,7 @@
         <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>19</v>
@@ -25035,7 +25035,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>18</v>
@@ -25075,7 +25075,7 @@
         <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -25145,13 +25145,13 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -25159,13 +25159,13 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -25173,13 +25173,13 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -25193,7 +25193,7 @@
         <v>18</v>
       </c>
       <c r="F64" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -25207,7 +25207,7 @@
         <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>18</v>
@@ -25218,7 +25218,7 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B68" t="s">
         <v>17</v>
@@ -25227,7 +25227,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>19</v>
@@ -25252,7 +25252,7 @@
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B71" t="s">
         <v>17</v>
@@ -25261,18 +25261,18 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B73" t="s">
         <v>382</v>
@@ -25281,13 +25281,13 @@
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F73" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -25306,7 +25306,7 @@
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B76" t="s">
         <v>17</v>
@@ -25340,7 +25340,7 @@
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B79" t="s">
         <v>17</v>
@@ -25355,7 +25355,7 @@
         <v>19</v>
       </c>
       <c r="F79" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -25363,7 +25363,7 @@
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>19</v>

--- a/Tennis/WTA Tour/Sam Stosur.xlsx
+++ b/Tennis/WTA Tour/Sam Stosur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9777" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32B781A3-EA39-4B48-AB4D-1277BABC1402}"/>
+  <xr:revisionPtr revIDLastSave="9784" documentId="13_ncr:1_{BF8D057F-852B-4BB1-A48C-0137976EE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BEEC2AE-3FEC-4F31-906E-429EFD437095}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" firstSheet="18" activeTab="24" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="18" activeTab="25" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1998" sheetId="4" r:id="rId1"/>
@@ -39,8 +39,6 @@
     <sheet name="2021" sheetId="33" r:id="rId24"/>
     <sheet name="2022" sheetId="42" r:id="rId25"/>
     <sheet name="Stats" sheetId="1" r:id="rId26"/>
-    <sheet name="Wins-Losses" sheetId="43" r:id="rId27"/>
-    <sheet name="Winning Percentile Range" sheetId="44" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3407,7 +3405,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7931-4405-83E1-6C46F385CD59}"/>
+              <c16:uniqueId val="{00000000-8235-463A-A678-2D90A462435F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3605,7 +3603,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7931-4405-83E1-6C46F385CD59}"/>
+              <c16:uniqueId val="{00000001-8235-463A-A678-2D90A462435F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3912,6 +3910,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4221,7 +4224,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-64AD-442E-AD1D-299C59DCBDDD}"/>
+              <c16:uniqueId val="{00000001-65FF-438F-BF60-5D4C23C059A4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4523,6 +4526,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -5612,47 +5620,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AC34D0B0-B63B-4B9B-B574-74F440EFA325}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A26B7089-B1ED-4059-9DBA-A6E1156F6F94}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226DF751-C98A-78B6-0AE9-432913971D07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66932F1F-B0AC-CDE8-AD6F-BAAB3DA820B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5665,27 +5657,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4EA3B07-FB17-DCC0-4554-9302291B42E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35FA389-C9C6-6FE2-8106-737DF38E3800}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5693,13 +5688,17 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6004,7 +6003,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6072,7 +6071,7 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6705,7 +6704,7 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7445,7 +7444,7 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8431,7 +8430,7 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9516,7 +9515,7 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10655,7 +10654,7 @@
   </sheetPr>
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11793,7 +11792,7 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12903,7 +12902,7 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13900,7 +13899,7 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14903,7 +14902,7 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15880,7 +15879,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16001,7 +16000,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16722,7 +16721,7 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17628,7 +17627,7 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18417,7 +18416,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18558,7 +18557,7 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18819,7 +18818,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18940,8 +18939,8 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19567,6 +19566,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19577,7 +19577,7 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19848,7 +19848,7 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -20643,7 +20643,7 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -21560,7 +21560,7 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -22368,7 +22368,7 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -23518,7 +23518,7 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -24409,7 +24409,7 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
